--- a/KIK01 ユースケース.xlsx
+++ b/KIK01 ユースケース.xlsx
@@ -17,10 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>2017.11.08</t>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>KIK01 ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +62,10 @@
     <rPh sb="0" eb="3">
       <t>デンゲンケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.11.24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1148,50 +1148,6 @@
         <a:ln>
           <a:tailEnd type="arrow"/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Connector 32"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4400550" y="4114800"/>
-          <a:ext cx="200025" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1890,57 +1846,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:AQ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="5:25">
-      <c r="X24" s="1">
-        <v>2</v>
-      </c>
+      <c r="X24" s="1"/>
     </row>
     <row r="25" spans="5:25">
       <c r="R25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="5:25">
       <c r="Y28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="5:25">
       <c r="E31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="5:25">
       <c r="I32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="I33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="14.25" thickBot="1">
       <c r="I34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="14.25" thickBot="1">
@@ -1949,13 +1906,13 @@
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
       <c r="I35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
